--- a/rest_new.xlsx
+++ b/rest_new.xlsx
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,32 +428,30 @@
     <row r="1" ht="15.75" customHeight="1" s="5">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>خارج الولاية</t>
+          <t>سوسة</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>ريان الرياحي</t>
+          <t>عمر الزهاني</t>
         </is>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>17828007387</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>خارج الولاية</t>
-        </is>
+          <t>017244036469</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>مدرسة خاصة</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>تحديد المدرسة المرغوب فيها</t>
+          <t xml:space="preserve"> نهج الغزالي </t>
         </is>
       </c>
       <c r="G1" s="0" t="inlineStr">
@@ -463,22 +461,555 @@
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>mouch f decision</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" s="5"/>
-    <row r="3" ht="15.75" customHeight="1" s="5"/>
-    <row r="4" ht="15.75" customHeight="1" s="5"/>
-    <row r="5" ht="15.75" customHeight="1" s="5"/>
-    <row r="6" ht="15.75" customHeight="1" s="5"/>
-    <row r="7" ht="15.75" customHeight="1" s="5"/>
-    <row r="8" ht="15.75" customHeight="1" s="5"/>
-    <row r="9" ht="15.75" customHeight="1" s="5"/>
-    <row r="10" ht="15.75" customHeight="1" s="5"/>
-    <row r="11" ht="15.75" customHeight="1" s="5"/>
-    <row r="12" ht="15.75" customHeight="1" s="5"/>
-    <row r="13" ht="15.75" customHeight="1" s="5"/>
+          <t xml:space="preserve"> بوحسينة 1</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>mouch mouwef9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="5">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>الزاوية القصيبة الثريات</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>شهد موسى</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>017431023571</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>الرشارشة 2</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الجمهورية الزاوية</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  العهد الجديد زاوية سوسة</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>mouch mouwef9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>سوسة</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>مرام زروق</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>017174017627</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>مدرسة خاصة</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>الحكيم قرول</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>مع الموافقة</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>mochkla f next ecole</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="5">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>باسم بنور</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>015891058645</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>التحرير</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>المدرسة المرغوب فيها غير مذكورة</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>mouch mouwef9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>مساكن</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>رسيل العطاوي</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>015235019050</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>الصفايا</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>حيّ النور مساكن</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>مع الموافقة</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>mochkla f prev ecole</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="5">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>مساكن</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>رسلان العطاوي</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>014731024733</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>الصفايا</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>حيّ النور مساكن</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>مع الموافقة</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>mochkla f prev ecole</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="5">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>سوسة</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>يوسف الزهاني</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>016094061457</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>مدرسة خاصة</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> نهج الغزالي </t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> بوحسينة 1</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>mouch mouwef9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="5">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>مساكن</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>ليليا بن عمر</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>017628036029</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الإمام الشافعي مساكن</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الحي الجديد مساكن</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>حيّ النور مساكن</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>mouch mouwef9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="5">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>أكودة</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>دعاء مزريقي</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>016353004068</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>البرانصة</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  طنطانة أكودة</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>مع الموافقة</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>mochkla f prev ecole</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="5">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>مساكن</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>محمد سليم الوريمي</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>016101026057</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الحي الجديد مساكن</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>الغاء النقلة والإبقاء بالمؤسسة الخاصة القادة</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>mouch mouwef9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="5">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>سوسة المدينة</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>إسراء  شلبية</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الباب الشمالي </t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>قرار قاضي الاسرة</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>مع الموافقة</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>mochkla uid</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="5">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>سوسة</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>الاء زروق</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>016318031124</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>مدرسة خاصة</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>الحكيم قرول</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>مع الموافقة</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>mochkla f next ecole</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="5">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>سوسة</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>أحمد زروق</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>016318030821</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>مدرسة خاصة</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>الحكيم قرول</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>مع الموافقة</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>mochkla f next ecole</t>
+        </is>
+      </c>
+    </row>
     <row r="14" ht="15.75" customHeight="1" s="5"/>
     <row r="15" ht="15.75" customHeight="1" s="5"/>
     <row r="16" ht="15.75" customHeight="1" s="5"/>
@@ -1479,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,132 +2024,9 @@
     <col width="17.13" customWidth="1" style="5" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="5">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">خارج الولاية </t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>اسيل بن صالح</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>017194039437</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>خارج الولاية</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>لم يتم تحديد المدرسة</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>mouch f decision</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" s="5">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>جوهرة</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ليان أبو الخير </t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>017428061536</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>مدرسة خاصة</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>تحديد المدرسة المرغوب فيها</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>mouch f decision</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" s="5">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>جوهرة</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>ميار الدائم</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>017086069242</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>849801</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>842617</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>842619</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>mochkla f prev ecole</t>
-        </is>
-      </c>
-    </row>
+    <row r="1" ht="15.75" customHeight="1" s="5"/>
+    <row r="2" ht="15.75" customHeight="1" s="5"/>
+    <row r="3" ht="15.75" customHeight="1" s="5"/>
     <row r="4" ht="15.75" customHeight="1" s="5"/>
     <row r="5" ht="15.75" customHeight="1" s="5"/>
     <row r="6" ht="15.75" customHeight="1" s="5"/>
@@ -4101,7 +4509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A32:B220"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4117,48 +4525,7 @@
     <col width="16.25" customWidth="1" style="5" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="5">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>سوسة</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>إسكندر بامري</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>016668043092</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>849801</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>842602</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>أخ  مرسم بالمدرسة</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>مع الموافقة</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>mochkla f prev ecole</t>
-        </is>
-      </c>
-    </row>
+    <row r="1" ht="15.75" customHeight="1" s="5"/>
     <row r="2" ht="15.75" customHeight="1" s="5"/>
     <row r="3" ht="15.75" customHeight="1" s="5"/>
     <row r="4" ht="15.75" customHeight="1" s="5"/>
